--- a/data_year/zb/公共管理、社会保障及其他/公安机关受理和查处治安案件数/每万人口受理案件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/公安机关受理和查处治安案件数/每万人口受理案件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,123 +543,123 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.131100370657335</v>
+        <v>0.1</v>
       </c>
       <c r="C2" t="n">
-        <v>12.793226163457</v>
+        <v>29.4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.827045503155083</v>
+        <v>0.8</v>
       </c>
       <c r="E2" t="n">
-        <v>0.993981591813566</v>
+        <v>1.1</v>
       </c>
       <c r="F2" t="n">
-        <v>2.5744454909797</v>
+        <v>2.9</v>
       </c>
       <c r="G2" t="n">
-        <v>0.775220217899111</v>
+        <v>1.1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.508943857925066</v>
+        <v>0.4</v>
       </c>
       <c r="I2" t="n">
-        <v>0.636179822406333</v>
+        <v>1.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0.383405415994825</v>
+        <v>0.2</v>
       </c>
       <c r="K2" t="n">
-        <v>56.301425365175</v>
+        <v>94.8</v>
       </c>
       <c r="L2" t="n">
-        <v>14.4830668382381</v>
+        <v>31.7</v>
       </c>
       <c r="M2" t="n">
-        <v>1.9515094735452</v>
+        <v>2.7</v>
       </c>
       <c r="N2" t="n">
-        <v>0.369590555049611</v>
+        <v>0.1</v>
       </c>
       <c r="O2" t="n">
-        <v>13.7943420435956</v>
+        <v>14.8</v>
       </c>
       <c r="P2" t="n">
-        <v>1.00039619315846</v>
+        <v>1.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.86997086854953</v>
+        <v>2.9</v>
       </c>
       <c r="R2" t="n">
-        <v>0.20032330639018</v>
+        <v>0.2</v>
       </c>
       <c r="S2" t="n">
-        <v>0.637071608446964</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5206857074600419</v>
+        <v>1.3</v>
       </c>
       <c r="U2" t="n">
-        <v>0.345207247254461</v>
+        <v>0.2</v>
       </c>
       <c r="V2" t="n">
-        <v>0.50571308919892</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C3" t="n">
-        <v>15.4</v>
+        <v>29.4</v>
       </c>
       <c r="D3" t="n">
         <v>0.7</v>
       </c>
       <c r="E3" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="F3" t="n">
         <v>3.5</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="K3" t="n">
-        <v>67.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>19.7</v>
+        <v>32.6</v>
       </c>
       <c r="M3" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="O3" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="P3" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="Q3" t="n">
         <v>2.7</v>
@@ -668,13 +668,13 @@
         <v>0.2</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="U3" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="V3" t="n">
         <v>0.5</v>
@@ -683,905 +683,695 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.154422781454996</v>
+        <v>0.094078462368531</v>
       </c>
       <c r="C4" t="n">
-        <v>17.4208257090869</v>
+        <v>32.6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.662411975438568</v>
+        <v>0.699203151741319</v>
       </c>
       <c r="E4" t="n">
-        <v>1.17418529953033</v>
+        <v>0.850837836390269</v>
       </c>
       <c r="F4" t="n">
-        <v>3.40550518608447</v>
+        <v>3.51182070470964</v>
       </c>
       <c r="G4" t="n">
-        <v>0.771849018167407</v>
+        <v>1.01941165235655</v>
       </c>
       <c r="H4" t="n">
-        <v>0.392315904836436</v>
+        <v>0.276026827235805</v>
       </c>
       <c r="I4" t="n">
-        <v>1.13914425472849</v>
+        <v>2.25605661659836</v>
       </c>
       <c r="J4" t="n">
-        <v>0.287775526467593</v>
+        <v>0.141456476179143</v>
       </c>
       <c r="K4" t="n">
-        <v>71.23213215310921</v>
+        <v>102.293793760644</v>
       </c>
       <c r="L4" t="n">
-        <v>22.0832145740861</v>
+        <v>33.3764445518114</v>
       </c>
       <c r="M4" t="n">
-        <v>2.04506500262905</v>
+        <v>3.2786793390655</v>
       </c>
       <c r="N4" t="n">
-        <v>0.207060031259912</v>
+        <v>0.108299967835388</v>
       </c>
       <c r="O4" t="n">
-        <v>15.3048234034497</v>
+        <v>15.1189921979274</v>
       </c>
       <c r="P4" t="n">
-        <v>1.04778778565658</v>
+        <v>1.98934631158708</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.60513139516153</v>
+        <v>3.01162288658818</v>
       </c>
       <c r="R4" t="n">
-        <v>0.14607499043633</v>
+        <v>0.206826793384645</v>
       </c>
       <c r="S4" t="n">
-        <v>0.825356617897206</v>
+        <v>1.74324282806533</v>
       </c>
       <c r="T4" t="n">
-        <v>0.744194595336759</v>
+        <v>1.20362838785241</v>
       </c>
       <c r="U4" t="n">
-        <v>0.324481588517031</v>
+        <v>0.285696861766092</v>
       </c>
       <c r="V4" t="n">
-        <v>0.490506512883736</v>
+        <v>0.579664438518865</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2</v>
+        <v>0.052469878903176</v>
       </c>
       <c r="C5" t="n">
-        <v>23.8</v>
+        <v>32.6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9</v>
+        <v>0.617109845616882</v>
       </c>
       <c r="E5" t="n">
-        <v>1.2</v>
+        <v>0.658521116086604</v>
       </c>
       <c r="F5" t="n">
-        <v>3.1</v>
+        <v>3.39863510851489</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0.955574939846363</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4</v>
+        <v>0.220228676282903</v>
       </c>
       <c r="I5" t="n">
-        <v>1.6</v>
+        <v>2.1535689117872</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3</v>
+        <v>0.117600109127986</v>
       </c>
       <c r="K5" t="n">
-        <v>88.2</v>
+        <v>97.3296579277808</v>
       </c>
       <c r="L5" t="n">
-        <v>28.4</v>
+        <v>30.1266992667227</v>
       </c>
       <c r="M5" t="n">
-        <v>2.6</v>
+        <v>3.95174106365482</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2</v>
+        <v>0.09195759512819</v>
       </c>
       <c r="O5" t="n">
-        <v>15.2</v>
+        <v>15.8105919462747</v>
       </c>
       <c r="P5" t="n">
-        <v>1.2</v>
+        <v>2.3236315859239</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.8</v>
+        <v>2.88042374387498</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1</v>
+        <v>0.143198739760983</v>
       </c>
       <c r="S5" t="n">
-        <v>1.1</v>
+        <v>1.52432531525028</v>
       </c>
       <c r="T5" t="n">
-        <v>1.1</v>
+        <v>0.993724213383994</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3</v>
+        <v>0.24303339922967</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5</v>
+        <v>0.466641094756128</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0.1</v>
       </c>
       <c r="C6" t="n">
-        <v>29.4</v>
+        <v>32.6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8</v>
+        <v>0.629878136232391</v>
       </c>
       <c r="E6" t="n">
-        <v>1.1</v>
+        <v>0.586585770702046</v>
       </c>
       <c r="F6" t="n">
-        <v>2.9</v>
+        <v>3.08333006098681</v>
       </c>
       <c r="G6" t="n">
-        <v>1.1</v>
+        <v>0.800186133495701</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4</v>
+        <v>0.220812125748131</v>
       </c>
       <c r="I6" t="n">
-        <v>1.8</v>
+        <v>1.66514740676076</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2</v>
+        <v>0.101879769109156</v>
       </c>
       <c r="K6" t="n">
-        <v>94.8</v>
+        <v>86.2684883556649</v>
       </c>
       <c r="L6" t="n">
-        <v>31.7</v>
+        <v>23.8484431035155</v>
       </c>
       <c r="M6" t="n">
-        <v>2.7</v>
+        <v>4.78538600685598</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1</v>
+        <v>0.091632238868707</v>
       </c>
       <c r="O6" t="n">
-        <v>14.8</v>
+        <v>16.8965069682331</v>
       </c>
       <c r="P6" t="n">
-        <v>1.3</v>
+        <v>2.89764713706225</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.9</v>
+        <v>2.66870089801199</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2</v>
+        <v>0.15400345765324</v>
       </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>0.893757486874826</v>
       </c>
       <c r="T6" t="n">
-        <v>1.3</v>
+        <v>0.844582414402763</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2</v>
+        <v>0.227762435060753</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6</v>
+        <v>0.384656407976713</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.1</v>
-      </c>
+          <t>2015年</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>29.4</v>
+        <v>25.2500161889</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7</v>
+        <v>0.5501856137</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9</v>
+        <v>0.5443682701</v>
       </c>
       <c r="F7" t="n">
-        <v>3.5</v>
+        <v>3.2861381985</v>
       </c>
       <c r="G7" t="n">
-        <v>1.1</v>
+        <v>0.6777895161</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3</v>
+        <v>0.2156338911</v>
       </c>
       <c r="I7" t="n">
-        <v>2.1</v>
+        <v>1.5739218736</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2</v>
+        <v>0.0950311362</v>
       </c>
       <c r="K7" t="n">
-        <v>97.09999999999999</v>
+        <v>85.6632812756</v>
       </c>
       <c r="L7" t="n">
-        <v>32.6</v>
+        <v>21.801166674</v>
       </c>
       <c r="M7" t="n">
-        <v>2.7</v>
+        <v>5.8006032356</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1</v>
+        <v>0.083962932</v>
       </c>
       <c r="O7" t="n">
-        <v>15.4</v>
+        <v>17.0215834855</v>
       </c>
       <c r="P7" t="n">
-        <v>1.5</v>
+        <v>3.7075942065</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.7</v>
+        <v>2.3486235396</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2</v>
+        <v>0.1798655804</v>
       </c>
       <c r="S7" t="n">
-        <v>1.7</v>
+        <v>0.9049201049</v>
       </c>
       <c r="T7" t="n">
-        <v>1.1</v>
+        <v>0.747278084</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2</v>
+        <v>0.2380608035</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5</v>
+        <v>0.5931221117</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.094078462368531</v>
-      </c>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>32.6</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>0.699203151741319</v>
+        <v>0.6</v>
       </c>
       <c r="E8" t="n">
-        <v>0.850837836390269</v>
+        <v>0.6</v>
       </c>
       <c r="F8" t="n">
-        <v>3.51182070470964</v>
+        <v>3.5</v>
       </c>
       <c r="G8" t="n">
-        <v>1.01941165235655</v>
+        <v>0.6</v>
       </c>
       <c r="H8" t="n">
-        <v>0.276026827235805</v>
+        <v>0.2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.25605661659836</v>
+        <v>1.6</v>
       </c>
       <c r="J8" t="n">
-        <v>0.141456476179143</v>
+        <v>0.1</v>
       </c>
       <c r="K8" t="n">
-        <v>102.293793760644</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="L8" t="n">
-        <v>33.3764445518114</v>
+        <v>20.3</v>
       </c>
       <c r="M8" t="n">
-        <v>3.2786793390655</v>
+        <v>5.6</v>
       </c>
       <c r="N8" t="n">
-        <v>0.108299967835388</v>
+        <v>0.1</v>
       </c>
       <c r="O8" t="n">
-        <v>15.1189921979274</v>
+        <v>16.5</v>
       </c>
       <c r="P8" t="n">
-        <v>1.98934631158708</v>
+        <v>3.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.01162288658818</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>0.206826793384645</v>
+        <v>0.2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.74324282806533</v>
+        <v>1.2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.20362838785241</v>
+        <v>0.8</v>
       </c>
       <c r="U8" t="n">
-        <v>0.285696861766092</v>
+        <v>0.2</v>
       </c>
       <c r="V8" t="n">
-        <v>0.579664438518865</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.052469878903176</v>
-      </c>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>32.6</v>
+        <v>22.3453973872007</v>
       </c>
       <c r="D9" t="n">
-        <v>0.617109845616882</v>
+        <v>0.633711728821363</v>
       </c>
       <c r="E9" t="n">
-        <v>0.658521116086604</v>
+        <v>0.622215987569061</v>
       </c>
       <c r="F9" t="n">
-        <v>3.39863510851489</v>
+        <v>2.59783609576427</v>
       </c>
       <c r="G9" t="n">
-        <v>0.955574939846363</v>
+        <v>0.488468289594843</v>
       </c>
       <c r="H9" t="n">
-        <v>0.220228676282903</v>
+        <v>0.11941758747698</v>
       </c>
       <c r="I9" t="n">
-        <v>2.1535689117872</v>
+        <v>1.46792990331492</v>
       </c>
       <c r="J9" t="n">
-        <v>0.117600109127986</v>
+        <v>0.07811061233885799</v>
       </c>
       <c r="K9" t="n">
-        <v>97.3296579277808</v>
+        <v>75.07524027394111</v>
       </c>
       <c r="L9" t="n">
-        <v>30.1266992667227</v>
+        <v>18.5495582988029</v>
       </c>
       <c r="M9" t="n">
-        <v>3.95174106365482</v>
+        <v>4.88820787292818</v>
       </c>
       <c r="N9" t="n">
-        <v>0.09195759512819</v>
+        <v>0.095922536832413</v>
       </c>
       <c r="O9" t="n">
-        <v>15.8105919462747</v>
+        <v>15.4802960980663</v>
       </c>
       <c r="P9" t="n">
-        <v>2.3236315859239</v>
+        <v>2.47378568139963</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.88042374387498</v>
+        <v>1.9123072053407</v>
       </c>
       <c r="R9" t="n">
-        <v>0.143198739760983</v>
+        <v>0.473627417127072</v>
       </c>
       <c r="S9" t="n">
-        <v>1.52432531525028</v>
+        <v>1.02017150092081</v>
       </c>
       <c r="T9" t="n">
-        <v>0.993724213383994</v>
+        <v>0.809816701197053</v>
       </c>
       <c r="U9" t="n">
-        <v>0.24303339922967</v>
+        <v>0.295867863720074</v>
       </c>
       <c r="V9" t="n">
-        <v>0.466641094756128</v>
+        <v>0.683895890883978</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1</v>
+        <v>0.038355143401797</v>
       </c>
       <c r="C10" t="n">
-        <v>32.6</v>
+        <v>20.2317648239189</v>
       </c>
       <c r="D10" t="n">
-        <v>0.629878136232391</v>
+        <v>0.7496094253895</v>
       </c>
       <c r="E10" t="n">
-        <v>0.586585770702046</v>
+        <v>0.772642577649099</v>
       </c>
       <c r="F10" t="n">
-        <v>3.08333006098681</v>
+        <v>2.44698935057117</v>
       </c>
       <c r="G10" t="n">
-        <v>0.800186133495701</v>
+        <v>0.421906577419771</v>
       </c>
       <c r="H10" t="n">
-        <v>0.220812125748131</v>
+        <v>0.07179406326592</v>
       </c>
       <c r="I10" t="n">
-        <v>1.66514740676076</v>
+        <v>1.26407860224455</v>
       </c>
       <c r="J10" t="n">
-        <v>0.101879769109156</v>
+        <v>0.076466625578695</v>
       </c>
       <c r="K10" t="n">
-        <v>86.2684883556649</v>
+        <v>69.6665424472187</v>
       </c>
       <c r="L10" t="n">
-        <v>23.8484431035155</v>
+        <v>16.9435780934226</v>
       </c>
       <c r="M10" t="n">
-        <v>4.78538600685598</v>
+        <v>3.85931430864711</v>
       </c>
       <c r="N10" t="n">
-        <v>0.091632238868707</v>
+        <v>0.099908268715332</v>
       </c>
       <c r="O10" t="n">
-        <v>16.8965069682331</v>
+        <v>15.136163625679</v>
       </c>
       <c r="P10" t="n">
-        <v>2.89764713706225</v>
+        <v>2.83317089251673</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.66870089801199</v>
+        <v>1.92406369591079</v>
       </c>
       <c r="R10" t="n">
-        <v>0.15400345765324</v>
+        <v>0.342580515701816</v>
       </c>
       <c r="S10" t="n">
-        <v>0.893757486874826</v>
+        <v>0.881781306884146</v>
       </c>
       <c r="T10" t="n">
-        <v>0.844582414402763</v>
+        <v>0.697759750032249</v>
       </c>
       <c r="U10" t="n">
-        <v>0.227762435060753</v>
+        <v>0.310632229213548</v>
       </c>
       <c r="V10" t="n">
-        <v>0.384656407976713</v>
+        <v>0.563982571055913</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.04</v>
+      </c>
       <c r="C11" t="n">
-        <v>25.2500161889</v>
+        <v>18.7</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5501856137</v>
+        <v>0.8</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5443682701</v>
+        <v>0.9</v>
       </c>
       <c r="F11" t="n">
-        <v>3.2861381985</v>
+        <v>2.1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6777895161</v>
+        <v>0.4</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2156338911</v>
+        <v>0.1</v>
       </c>
       <c r="I11" t="n">
-        <v>1.5739218736</v>
+        <v>1.1</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0950311362</v>
+        <v>0.1</v>
       </c>
       <c r="K11" t="n">
-        <v>85.6632812756</v>
+        <v>68.2</v>
       </c>
       <c r="L11" t="n">
-        <v>21.801166674</v>
+        <v>16</v>
       </c>
       <c r="M11" t="n">
-        <v>5.8006032356</v>
+        <v>3.2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.083962932</v>
+        <v>0.1</v>
       </c>
       <c r="O11" t="n">
-        <v>17.0215834855</v>
+        <v>16.3</v>
       </c>
       <c r="P11" t="n">
-        <v>3.7075942065</v>
+        <v>3.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.3486235396</v>
+        <v>1.9</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1798655804</v>
+        <v>0.3</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9049201049</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
-        <v>0.747278084</v>
+        <v>0.6</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2380608035</v>
+        <v>0.3</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5931221117</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.021986428480358</v>
+      </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>15.565520123532</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6</v>
+        <v>0.730623751576025</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6</v>
+        <v>0.730935414866339</v>
       </c>
       <c r="F12" t="n">
-        <v>3.5</v>
+        <v>1.39100993072575</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6</v>
+        <v>0.319816118658715</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2</v>
+        <v>0.044064939296491</v>
       </c>
       <c r="I12" t="n">
-        <v>1.6</v>
+        <v>0.9355069486747229</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1</v>
+        <v>0.381497117114565</v>
       </c>
       <c r="K12" t="n">
-        <v>83.40000000000001</v>
+        <v>61.1147133406055</v>
       </c>
       <c r="L12" t="n">
-        <v>20.3</v>
+        <v>14.6161795747213</v>
       </c>
       <c r="M12" t="n">
-        <v>5.6</v>
+        <v>2.29710719800535</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1</v>
+        <v>0.095432716145575</v>
       </c>
       <c r="O12" t="n">
-        <v>16.5</v>
+        <v>15.0129836093442</v>
       </c>
       <c r="P12" t="n">
-        <v>3.4</v>
+        <v>5.0724262987151</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.2</v>
+        <v>1.76837042598705</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2</v>
+        <v>0.271210811882871</v>
       </c>
       <c r="S12" t="n">
-        <v>1.2</v>
+        <v>0.9758744280270299</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8</v>
+        <v>0.431016163991557</v>
       </c>
       <c r="U12" t="n">
-        <v>0.2</v>
+        <v>0.277514910255139</v>
       </c>
       <c r="V12" t="n">
-        <v>0.7</v>
+        <v>0.175636430605335</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0144392827805</v>
+      </c>
       <c r="C13" t="n">
-        <v>22.3453973872007</v>
+        <v>16.124281222559</v>
       </c>
       <c r="D13" t="n">
-        <v>0.633711728821363</v>
+        <v>0.9572203495453639</v>
       </c>
       <c r="E13" t="n">
-        <v>0.622215987569061</v>
+        <v>0.789982437753165</v>
       </c>
       <c r="F13" t="n">
-        <v>2.59783609576427</v>
+        <v>1.16951108970909</v>
       </c>
       <c r="G13" t="n">
-        <v>0.488468289594843</v>
+        <v>0.338802651332748</v>
       </c>
       <c r="H13" t="n">
-        <v>0.11941758747698</v>
+        <v>0.040478146333173</v>
       </c>
       <c r="I13" t="n">
-        <v>1.46792990331492</v>
+        <v>0.778680282128998</v>
       </c>
       <c r="J13" t="n">
-        <v>0.07811061233885799</v>
+        <v>0.431507237345268</v>
       </c>
       <c r="K13" t="n">
-        <v>75.07524027394111</v>
+        <v>64.1642919865167</v>
       </c>
       <c r="L13" t="n">
-        <v>18.5495582988029</v>
+        <v>16.4018001303005</v>
       </c>
       <c r="M13" t="n">
-        <v>4.88820787292818</v>
+        <v>1.71019460102541</v>
       </c>
       <c r="N13" t="n">
-        <v>0.095922536832413</v>
+        <v>0.117929071183752</v>
       </c>
       <c r="O13" t="n">
-        <v>15.4802960980663</v>
+        <v>16.5514545506048</v>
       </c>
       <c r="P13" t="n">
-        <v>2.47378568139963</v>
+        <v>4.65604197943518</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.9123072053407</v>
+        <v>1.95284395093901</v>
       </c>
       <c r="R13" t="n">
-        <v>0.473627417127072</v>
+        <v>0.328329037192307</v>
       </c>
       <c r="S13" t="n">
-        <v>1.02017150092081</v>
+        <v>0.907961079794918</v>
       </c>
       <c r="T13" t="n">
-        <v>0.809816701197053</v>
+        <v>0.482997195705747</v>
       </c>
       <c r="U13" t="n">
-        <v>0.295867863720074</v>
+        <v>0.246296348752231</v>
       </c>
       <c r="V13" t="n">
-        <v>0.683895890883978</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.038355143401797</v>
-      </c>
-      <c r="C14" t="n">
-        <v>20.2317648239189</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.7496094253895</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.772642577649099</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2.44698935057117</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.421906577419771</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.07179406326592</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.26407860224455</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.076466625578695</v>
-      </c>
-      <c r="K14" t="n">
-        <v>69.6665424472187</v>
-      </c>
-      <c r="L14" t="n">
-        <v>16.9435780934226</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3.85931430864711</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.099908268715332</v>
-      </c>
-      <c r="O14" t="n">
-        <v>15.136163625679</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.83317089251673</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.92406369591079</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.342580515701816</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.881781306884146</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.697759750032249</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.310632229213548</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0.563982571055913</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="C15" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>16</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O15" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.021986428480358</v>
-      </c>
-      <c r="C16" t="n">
-        <v>15.565520123532</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.730623751576025</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.730935414866339</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.39100993072575</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.319816118658715</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.044064939296491</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.9355069486747229</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.381497117114565</v>
-      </c>
-      <c r="K16" t="n">
-        <v>61.1147133406055</v>
-      </c>
-      <c r="L16" t="n">
-        <v>14.6161795747213</v>
-      </c>
-      <c r="M16" t="n">
-        <v>2.29710719800535</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.095432716145575</v>
-      </c>
-      <c r="O16" t="n">
-        <v>15.0129836093442</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5.0724262987151</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.76837042598705</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.271210811882871</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.9758744280270299</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.431016163991557</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0.277514910255139</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0.175636430605335</v>
+        <v>0.163541342095573</v>
       </c>
     </row>
   </sheetData>
